--- a/biology/Zoologie/Âne_sauvage/Âne_sauvage.xlsx
+++ b/biology/Zoologie/Âne_sauvage/Âne_sauvage.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%82ne_sauvage</t>
+          <t>Âne_sauvage</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,16 +490,18 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'expression « Âne sauvage » est un nom vernaculaire attribué à certaines espèces d'équidés, qui est une famille de périssodactyles. Répartis en Afro-Eurasie, ils désignent les ânes non domestiqués. Les ânes sauvages appartiennent tous au sous-genre Asinus et l'Âne domestique (Equus asinus) est un descendant de l'espèce africaine. Ils sont donc à distinguer de l'âne marron, qui est retourné à l'état sauvage ou semi-sauvage par le phénomène du marronnage. Les espèces concernées sont[1],[2] :
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'expression « Âne sauvage » est un nom vernaculaire attribué à certaines espèces d'équidés, qui est une famille de périssodactyles. Répartis en Afro-Eurasie, ils désignent les ânes non domestiqués. Les ânes sauvages appartiennent tous au sous-genre Asinus et l'Âne domestique (Equus asinus) est un descendant de l'espèce africaine. Ils sont donc à distinguer de l'âne marron, qui est retourné à l'état sauvage ou semi-sauvage par le phénomène du marronnage. Les espèces concernées sont, :
 l'Âne sauvage d'Afrique (E. africanus) ;
 l'Âne sauvage d'Asie ou Hémione (E. hemionus) ;
 l'Âne sauvage du Tibet ou Kiang (E. kiang).
 			Âne sauvage d'Afrique (E. africanus)
 			Âne sauvage d'Asie (E. hemionus)
 			Âne sauvage du Tibet (E. kiang)
-À ces trois espèces s'ajoutent d'autres équidés non domestiqués également appelés « ânes »[3] :
+À ces trois espèces s'ajoutent d'autres équidés non domestiqués également appelés « ânes » :
 l'Âne européen ou Hydrontin (E. hydruntinus) ;
 les Ânes rayés ou Zèbres (sous-genres Dolichohippus et Hippotigris).
 			Hydrontin (E. hydruntinus)
